--- a/src/doc/计科2305-王翡-工作计划表.xlsx
+++ b/src/doc/计科2305-王翡-工作计划表.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\86158\OneDrive\桌面\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{D0A7BBF7-297E-4CE0-9F5F-FD4B01493E92}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{5C5675EF-99F6-4049-8B0A-320465880E6D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="19396" windowHeight="12196" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
   <si>
     <t>工作计划表</t>
   </si>
@@ -73,35 +73,37 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>2.1、考题生成规则配置（规则的增删该查）</t>
+    <t>2.2、根据规则生成试卷
+Controller层、Service层
+需要使用2.1功能接口</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
-    <t>2.2、根据规则生成试卷</t>
+    <t>2.3、按课程随机生成训练题
+Controller层、Service层
+需要使用1.3功能和2.1功能接口</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
-    <t>2.3、按课程随机生成训练题</t>
+    <t>2.1、考题生成规则配置（规则的增删改查）
+在Service层、Dao层
+class rule1（按知识点分类）；class rule2（按题型分类）；class rule3（按难易程度分类）
+需要使用1.3考题增删改查功能的接口</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
-    <t>2.4、错题库</t>
+    <t xml:space="preserve">2.4、错题库
+Controller层、Service层
+与数据库交互
+</t>
     <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>1天</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>2天</t>
-    <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -147,6 +149,14 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -222,7 +232,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -232,21 +242,26 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -731,7 +746,7 @@
   <dimension ref="B1:I91"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F6" sqref="F6"/>
+      <selection activeCell="G4" sqref="G4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.19921875" defaultRowHeight="13.5" x14ac:dyDescent="0.3"/>
@@ -743,16 +758,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:9" ht="38" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="3"/>
-      <c r="D1" s="3"/>
-      <c r="E1" s="3"/>
-      <c r="F1" s="3"/>
-      <c r="G1" s="3"/>
-      <c r="H1" s="3"/>
-      <c r="I1" s="3"/>
+      <c r="C1" s="4"/>
+      <c r="D1" s="4"/>
+      <c r="E1" s="4"/>
+      <c r="F1" s="4"/>
+      <c r="G1" s="4"/>
+      <c r="H1" s="4"/>
+      <c r="I1" s="4"/>
     </row>
     <row r="2" spans="2:9" ht="24" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B2" s="1" t="s">
@@ -780,72 +795,72 @@
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="2:9" ht="38" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="6" t="s">
+    <row r="3" spans="2:9" ht="105.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B3" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="C3" s="6" t="s">
+      <c r="C3" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="D3" s="6" t="s">
+      <c r="D3" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="E3" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="F3" s="8" t="s">
-        <v>16</v>
+      <c r="E3" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="F3" s="3">
+        <v>12.25</v>
       </c>
       <c r="G3" s="2"/>
       <c r="H3" s="2"/>
       <c r="I3" s="2"/>
     </row>
-    <row r="4" spans="2:9" ht="38" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B4" s="4"/>
-      <c r="C4" s="4"/>
-      <c r="D4" s="4"/>
-      <c r="E4" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="F4" s="8" t="s">
-        <v>17</v>
+    <row r="4" spans="2:9" ht="58.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B4" s="6"/>
+      <c r="C4" s="6"/>
+      <c r="D4" s="6"/>
+      <c r="E4" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="F4" s="3">
+        <v>12.29</v>
       </c>
       <c r="G4" s="2"/>
       <c r="H4" s="2"/>
       <c r="I4" s="2"/>
     </row>
-    <row r="5" spans="2:9" ht="38" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B5" s="4"/>
-      <c r="C5" s="4"/>
-      <c r="D5" s="4"/>
-      <c r="E5" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="F5" s="8" t="s">
-        <v>17</v>
+    <row r="5" spans="2:9" ht="58.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B5" s="6"/>
+      <c r="C5" s="6"/>
+      <c r="D5" s="6"/>
+      <c r="E5" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="F5" s="3">
+        <v>12.31</v>
       </c>
       <c r="G5" s="2"/>
       <c r="H5" s="2"/>
       <c r="I5" s="2"/>
     </row>
-    <row r="6" spans="2:9" ht="38" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B6" s="4"/>
-      <c r="C6" s="4"/>
-      <c r="D6" s="4"/>
-      <c r="E6" s="7" t="s">
+    <row r="6" spans="2:9" ht="58.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B6" s="6"/>
+      <c r="C6" s="6"/>
+      <c r="D6" s="6"/>
+      <c r="E6" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="F6" s="8" t="s">
-        <v>16</v>
+      <c r="F6" s="3">
+        <v>1.9</v>
       </c>
       <c r="G6" s="2"/>
       <c r="H6" s="2"/>
       <c r="I6" s="2"/>
     </row>
     <row r="7" spans="2:9" ht="38" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B7" s="4"/>
-      <c r="C7" s="4"/>
-      <c r="D7" s="4"/>
+      <c r="B7" s="6"/>
+      <c r="C7" s="6"/>
+      <c r="D7" s="6"/>
       <c r="E7" s="2"/>
       <c r="F7" s="2"/>
       <c r="G7" s="2"/>
@@ -853,9 +868,9 @@
       <c r="I7" s="2"/>
     </row>
     <row r="8" spans="2:9" ht="38" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B8" s="4"/>
-      <c r="C8" s="4"/>
-      <c r="D8" s="4"/>
+      <c r="B8" s="6"/>
+      <c r="C8" s="6"/>
+      <c r="D8" s="6"/>
       <c r="E8" s="2"/>
       <c r="F8" s="2"/>
       <c r="G8" s="2"/>
@@ -863,9 +878,9 @@
       <c r="I8" s="2"/>
     </row>
     <row r="9" spans="2:9" ht="38" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B9" s="4"/>
-      <c r="C9" s="4"/>
-      <c r="D9" s="4"/>
+      <c r="B9" s="6"/>
+      <c r="C9" s="6"/>
+      <c r="D9" s="6"/>
       <c r="E9" s="2"/>
       <c r="F9" s="2"/>
       <c r="G9" s="2"/>
@@ -873,9 +888,9 @@
       <c r="I9" s="2"/>
     </row>
     <row r="10" spans="2:9" ht="38" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B10" s="5"/>
-      <c r="C10" s="5"/>
-      <c r="D10" s="5"/>
+      <c r="B10" s="7"/>
+      <c r="C10" s="7"/>
+      <c r="D10" s="7"/>
       <c r="E10" s="2"/>
       <c r="F10" s="2"/>
       <c r="G10" s="2"/>
